--- a/output/Allocation Rule/summary_tables/allocation_rule_summary_tables_Chemours - Corpus Christi Plant.xlsx
+++ b/output/Allocation Rule/summary_tables/allocation_rule_summary_tables_Chemours - Corpus Christi Plant.xlsx
@@ -599,22 +599,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -622,10 +622,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="C10" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="D10" t="n">
         <v>0.2</v>
@@ -634,10 +634,10 @@
         <v>0.2</v>
       </c>
       <c r="F10" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="G10" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -843,22 +843,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>8.3</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.079</v>
+        <v>0.11</v>
       </c>
       <c r="D10" t="n">
         <v>0.00000000000000002</v>
@@ -878,10 +878,10 @@
         <v>0.000000000000000013</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03</v>
+        <v>0.036</v>
       </c>
       <c r="G10" t="n">
-        <v>0.033</v>
+        <v>0.039</v>
       </c>
     </row>
   </sheetData>
